--- a/lab2/wyniki.xlsx
+++ b/lab2/wyniki.xlsx
@@ -60,8 +60,29 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -87,15 +108,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Procentowy" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -376,106 +407,132 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>0.47177999999999998</v>
-      </c>
-      <c r="C2">
-        <v>5.9898979999999998E-2</v>
-      </c>
-      <c r="D2">
-        <v>0.84134500000000001</v>
+      <c r="B2" s="3">
+        <f>_xlfn.BINOM.DIST(3,5,0.7,TRUE)</f>
+        <v>0.47178000000000009</v>
+      </c>
+      <c r="C2" s="3">
+        <f>1-_xlfn.BINOM.DIST(1,20,0.02,TRUE)</f>
+        <v>5.9898978548948545E-2</v>
+      </c>
+      <c r="D2" s="3">
+        <f>_xlfn.NORM.DIST(186,176,10,TRUE)</f>
+        <v>0.84134474606854304</v>
       </c>
       <c r="E2" s="1">
-        <v>4.4565E-2</v>
-      </c>
-      <c r="F2">
-        <v>8.1980000000000004E-3</v>
+        <f>1-_xlfn.NORM.DIST(75,58,10,TRUE)</f>
+        <v>4.4565462758543006E-2</v>
+      </c>
+      <c r="F2" s="3">
+        <f>_xlfn.NORM.DIST(24,36,5,TRUE)</f>
+        <v>8.1975359245961311E-3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>0.74431000000000003</v>
-      </c>
-      <c r="D3">
-        <v>0.15865499999999999</v>
+      <c r="B3" s="3">
+        <f>1-_xlfn.BINOM.DIST(3,6,0.7,TRUE)</f>
+        <v>0.74430999999999992</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3">
+        <f>_xlfn.NORM.DIST(166,176,10,TRUE)</f>
+        <v>0.15865525393145699</v>
       </c>
       <c r="E3" s="1">
-        <v>0.21185499999999999</v>
-      </c>
-      <c r="F3">
+        <f>_xlfn.NORM.DIST(50,58,10,TRUE)</f>
+        <v>0.21185539858339661</v>
+      </c>
+      <c r="F3" s="3">
+        <f>1-_xlfn.NORM.DIST(36,36,5,TRUE)</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>0.3176523</v>
-      </c>
-      <c r="D4">
-        <v>0.72574700000000003</v>
-      </c>
-      <c r="E4">
-        <v>41.551464000000003</v>
-      </c>
+      <c r="B4" s="3">
+        <f>_xlfn.BINOM.DIST(5,7,0.7,FALSE)</f>
+        <v>0.31765230000000005</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3">
+        <f>1-_xlfn.NORM.DIST(170,176,10,TRUE)</f>
+        <v>0.72574688224992645</v>
+      </c>
+      <c r="E4" s="3">
+        <f>_xlfn.NORM.INV(0.05,58,10)</f>
+        <v>41.551463730485274</v>
+      </c>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5">
-        <v>8.1980000000000004E-3</v>
-      </c>
-      <c r="E5">
-        <v>74.448536000000004</v>
-      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2">
+        <f>1-_xlfn.NORM.DIST(200,176,10,TRUE)</f>
+        <v>8.1975359245961554E-3</v>
+      </c>
+      <c r="E5" s="3">
+        <f>_xlfn.NORM.INV(0.95,58,10)</f>
+        <v>74.448536269514719</v>
+      </c>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6">
-        <v>0.20888499999999999</v>
-      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3">
+        <f>_xlfn.NORM.DIST(174,176,10,TRUE)-_xlfn.NORM.DIST(168,176,10,TRUE)</f>
+        <v>0.20888489197750035</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B3" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>